--- a/biology/Botanique/Scirpus/Scirpus.xlsx
+++ b/biology/Botanique/Scirpus/Scirpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scirpus est un genre de plantes à fleur de la famille des Cyperaceae appelée scirpes, bien que de nombreux scirpes n'appartiennent pas à ce genre. Ce sont des végétaux de zones humides.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été décrit près d'un millier d'espèces dans ce genre. Ne sont acceptées à l'heure actuelle qu'une soixantaine :
-Selon World Checklist of Selected Plant Families (WCSP)  (27 mars 2012)[1] :
+Selon World Checklist of Selected Plant Families (WCSP)  (27 mars 2012) :
 Scirpus ancistrochaetus Schuyler (1962)
 Scirpus angustisquamis Beetle (1946)
 Scirpus asper J.Presl &amp; C.Presl (1828)
 Scirpus atrocinctus Fernald (1899)
-Scirpus atrovirens Willd. (1809) - le Scirpe vert sombre fait partie de la flore obsidionale de France[2]
+Scirpus atrovirens Willd. (1809) - le Scirpe vert sombre fait partie de la flore obsidionale de France
 Scirpus chunianus Tang &amp; F.T.Wang (1961)
 Scirpus colchicus Kimer. (1975)
 Scirpus congdonii Britton (1918)
